--- a/TestData/Write.xlsx
+++ b/TestData/Write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="81">
   <si>
     <t>Meta Front-End Developer Professional Certificate</t>
   </si>
@@ -268,6 +268,29 @@
   <si>
     <t>4.5
 (5,308 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,321 reviews)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,761 reviews)</t>
+  </si>
+  <si>
+    <t>English (1,660)</t>
+  </si>
+  <si>
+    <t>Beginner (894)</t>
+  </si>
+  <si>
+    <t>Intermediate (786)</t>
+  </si>
+  <si>
+    <t>English (1,661)</t>
+  </si>
+  <si>
+    <t>Beginner (895)</t>
   </si>
 </sst>
 </file>
@@ -634,38 +657,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>3</v>
-      </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
